--- a/fun/算法周期.xlsx
+++ b/fun/算法周期.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11200"/>
+    <workbookView windowWidth="24800" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="练级记录" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <t>大类</t>
   </si>
@@ -569,6 +570,24 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/longest-valid-parentheses</t>
+  </si>
+  <si>
+    <t>2020.03.31</t>
+  </si>
+  <si>
+    <t>2020.04.01</t>
+  </si>
+  <si>
+    <t>2020.04.02</t>
+  </si>
+  <si>
+    <t>2020.04.03</t>
+  </si>
+  <si>
+    <t>2020.04.04</t>
+  </si>
+  <si>
+    <t>2020.04.05</t>
   </si>
 </sst>
 </file>
@@ -577,9 +596,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -612,6 +631,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -620,17 +647,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,33 +668,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,17 +683,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,14 +715,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,13 +761,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -749,7 +768,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -765,6 +784,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -777,13 +880,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,157 +940,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,6 +988,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -979,6 +1013,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1001,56 +1070,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1061,145 +1080,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1546,7 +1565,7 @@
   <sheetPr/>
   <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2789,4 +2808,87 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.4732142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1">
+        <v>94</v>
+      </c>
+      <c r="C1">
+        <v>144</v>
+      </c>
+      <c r="D1">
+        <v>589</v>
+      </c>
+      <c r="E1">
+        <v>590</v>
+      </c>
+      <c r="F1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>